--- a/Img/Nginx-NextCloud.xlsx
+++ b/Img/Nginx-NextCloud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72b25cd276dfe419/デスクトップ/Nginx-Nextcloud/Img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B9C16733-1462-4A32-B2CA-9CF495B3ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC9C7D6-1798-4251-9D08-7595BD023506}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B9C16733-1462-4A32-B2CA-9CF495B3ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E822CD2F-4FFF-434D-8879-B804039342CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,6 +336,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>153744</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21819578-4C87-7C78-EF48-815A76B698D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="8239125"/>
+          <a:ext cx="9269169" cy="8848725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -542,6 +593,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FABFCA-B650-46A7-8C2B-244113A188D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF37" sqref="AF37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="CM60" sqref="CM60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
